--- a/text worksheet 1.xlsx
+++ b/text worksheet 1.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +633,6 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
